--- a/excel/Условное форматирование.xlsx
+++ b/excel/Условное форматирование.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18996" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Базовый" sheetId="1" r:id="rId1"/>
     <sheet name="Продвинутый" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
-    <sheet name="Лист6" sheetId="6" r:id="rId5"/>
-    <sheet name="Эксперт" sheetId="2" r:id="rId6"/>
+    <sheet name="Эксперт" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист5!$L$4:$L$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист6!$F$5:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист5!$L$4:$L$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист6!$F$5:$F$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
   <si>
     <t>1.Знакомство с Microsoft Excel</t>
   </si>
@@ -1470,9 +1470,6 @@
   </si>
   <si>
     <t>Гистограммы</t>
-  </si>
-  <si>
-    <t>к</t>
   </si>
   <si>
     <t>Цветовые шкалы</t>
@@ -1544,11 +1541,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,6 +1653,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1704,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1715,57 +1720,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="7" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2054,143 +2034,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
@@ -2209,174 +2189,174 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
@@ -2388,52 +2368,357 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="M3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="9">
-        <f ca="1">INT(RANDBETWEEN(10000,50000))</f>
-        <v>47435</v>
+        <f ca="1">RANDBETWEEN(10000,50000)</f>
+        <v>37178</v>
       </c>
       <c r="E4" s="9">
         <v>16297</v>
@@ -2443,37 +2728,37 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>10754</v>
+        <v>24557</v>
       </c>
       <c r="J4" s="9">
         <v>16297</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>15420</v>
+        <v>21613</v>
       </c>
       <c r="O4" s="9">
         <v>16297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D13" ca="1" si="0">INT(RANDBETWEEN(10000,50000))</f>
-        <v>44414</v>
+        <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
+        <v>13851</v>
       </c>
       <c r="E5" s="9">
         <v>20756</v>
@@ -2483,37 +2768,37 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>15650</v>
+        <v>22667</v>
       </c>
       <c r="J5" s="9">
         <v>20756</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>13580</v>
+        <v>21458</v>
       </c>
       <c r="O5" s="9">
         <v>20756</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>16403</v>
+        <v>46439</v>
       </c>
       <c r="E6" s="9">
         <v>19263</v>
@@ -2523,37 +2808,37 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>11330</v>
+        <v>14770</v>
       </c>
       <c r="J6" s="9">
         <v>19263</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>23877</v>
+        <v>18046</v>
       </c>
       <c r="O6" s="9">
         <v>19263</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>37923</v>
+        <v>34881</v>
       </c>
       <c r="E7" s="9">
         <v>12306</v>
@@ -2563,37 +2848,37 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>11153</v>
+        <v>23344</v>
       </c>
       <c r="J7" s="9">
         <v>12306</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>24664</v>
+        <v>17567</v>
       </c>
       <c r="O7" s="9">
         <v>12306</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>12083</v>
+        <v>48664</v>
       </c>
       <c r="E8" s="9">
         <v>11131</v>
@@ -2603,37 +2888,37 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>13902</v>
+        <v>16788</v>
       </c>
       <c r="J8" s="9">
         <v>11131</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>12705</v>
+        <v>18739</v>
       </c>
       <c r="O8" s="9">
         <v>11131</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>11869</v>
+        <v>45146</v>
       </c>
       <c r="E9" s="9">
         <v>24518</v>
@@ -2643,37 +2928,37 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>11156</v>
+        <v>18880</v>
       </c>
       <c r="J9" s="9">
         <v>24518</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15295</v>
+        <v>14618</v>
       </c>
       <c r="O9" s="9">
         <v>24518</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>16387</v>
+        <v>41494</v>
       </c>
       <c r="E10" s="9">
         <v>10295</v>
@@ -2683,27 +2968,27 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>11592</v>
+        <v>12228</v>
       </c>
       <c r="J10" s="9">
         <v>10295</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>29065</v>
+        <v>20969</v>
       </c>
       <c r="E11" s="9">
         <v>14905</v>
@@ -2713,27 +2998,27 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>15655</v>
+        <v>21116</v>
       </c>
       <c r="J11" s="9">
         <v>14905</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>28896</v>
+        <v>10993</v>
       </c>
       <c r="E12" s="9">
         <v>19042</v>
@@ -2743,27 +3028,27 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16894</v>
+        <v>18215</v>
       </c>
       <c r="J12" s="9">
         <v>19042</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42036</v>
+        <v>27448</v>
       </c>
       <c r="E13" s="9">
         <v>23378</v>
@@ -2773,78 +3058,73 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>17671</v>
+        <v>23502</v>
       </c>
       <c r="J13" s="9">
         <v>23378</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="C19" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>14</v>
       </c>
@@ -2857,466 +3137,379 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D13">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76F8F7F4-E02E-44DD-820E-4433505A4498}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{042A5BC0-8099-42AC-B240-31BF531B3F03}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I13">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N9">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C29">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E13">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76F8F7F4-E02E-44DD-820E-4433505A4498}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{042A5BC0-8099-42AC-B240-31BF531B3F03}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D4:D13</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B4:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L4">
         <v>16297</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L5">
         <v>20756</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L6">
         <v>19263</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L7">
         <v>12306</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8">
         <v>11131</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9">
         <v>24518</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10">
         <v>10295</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11">
         <v>14905</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12">
         <v>19042</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L13">
         <v>23378</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="L4:L13"/>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>OR(B4 = "суббота",B4="воскресение")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B66">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>B44="Понедельник"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3324,31 +3517,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="6:23" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>16297</v>
       </c>
     </row>
-    <row r="7" spans="6:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>20756</v>
       </c>
@@ -3356,116 +3551,116 @@
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
         <v>Сидоров</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="R7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
       <c r="V7" t="s">
-        <v>148</v>
-      </c>
-      <c r="W7" s="14">
+        <v>147</v>
+      </c>
+      <c r="W7" s="13">
         <f ca="1">RAND()*10000</f>
-        <v>8476.7316393710353</v>
-      </c>
-    </row>
-    <row r="8" spans="6:23" x14ac:dyDescent="0.3">
+        <v>9788.8075251737628</v>
+      </c>
+    </row>
+    <row r="8" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>19263</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="str">
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Петров</v>
-      </c>
-      <c r="R8" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R8" s="10">
         <v>43873</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="13">
         <f ca="1">RAND()*10000</f>
-        <v>9030.7312072674958</v>
-      </c>
-      <c r="T8" t="s">
+        <v>908.63809474487357</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" t="s">
         <v>148</v>
       </c>
-      <c r="V8" t="s">
-        <v>149</v>
-      </c>
-      <c r="W8" s="14">
+      <c r="W8" s="13">
         <f t="shared" ref="W8:W27" ca="1" si="0">RAND()*10000</f>
-        <v>7310.2260075136628</v>
-      </c>
-    </row>
-    <row r="9" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6107.1122219338813</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>12306</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L27" ca="1" si="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Сидоров</v>
-      </c>
-      <c r="R9" s="11">
+        <v>Иванов</v>
+      </c>
+      <c r="R9" s="10">
         <v>43874</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="13">
         <f t="shared" ref="S9:S27" ca="1" si="2">RAND()*10000</f>
-        <v>2142.2516368829747</v>
-      </c>
-      <c r="T9" t="s">
-        <v>149</v>
+        <v>1273.119354437745</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V9" t="s">
-        <v>149</v>
-      </c>
-      <c r="W9" s="14">
+        <v>148</v>
+      </c>
+      <c r="W9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1108.2806825819059</v>
-      </c>
-    </row>
-    <row r="10" spans="6:23" x14ac:dyDescent="0.3">
+        <v>4357.5765693275835</v>
+      </c>
+    </row>
+    <row r="10" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>11131</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
-      </c>
-      <c r="R10" s="11">
+        <v>Петров</v>
+      </c>
+      <c r="R10" s="10">
         <v>43875</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>3923.6371696628689</v>
-      </c>
-      <c r="T10" t="s">
-        <v>148</v>
+        <v>5041.748463016399</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="V10" t="s">
-        <v>148</v>
-      </c>
-      <c r="W10" s="14">
+        <v>147</v>
+      </c>
+      <c r="W10" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5405.5701227624286</v>
-      </c>
-    </row>
-    <row r="11" spans="6:23" x14ac:dyDescent="0.3">
+        <v>3717.1876227458624</v>
+      </c>
+    </row>
+    <row r="11" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>24518</v>
       </c>
@@ -3474,27 +3669,27 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R11" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R11" s="10">
         <v>43876</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>2817.3397320922531</v>
-      </c>
-      <c r="T11" t="s">
-        <v>149</v>
+        <v>7508.6080450108602</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V11" t="s">
-        <v>151</v>
-      </c>
-      <c r="W11" s="14">
+        <v>150</v>
+      </c>
+      <c r="W11" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3626.705513538805</v>
-      </c>
-    </row>
-    <row r="12" spans="6:23" x14ac:dyDescent="0.3">
+        <v>2407.3205956401721</v>
+      </c>
+    </row>
+    <row r="12" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>10295</v>
       </c>
@@ -3505,25 +3700,25 @@
         <f t="shared" ca="1" si="1"/>
         <v>Петров</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <v>43877</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>7995.5482202029489</v>
-      </c>
-      <c r="T12" t="s">
-        <v>149</v>
+        <v>1402.0109639161603</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V12" t="s">
-        <v>151</v>
-      </c>
-      <c r="W12" s="14">
+        <v>150</v>
+      </c>
+      <c r="W12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4135.039104142892</v>
-      </c>
-    </row>
-    <row r="13" spans="6:23" x14ac:dyDescent="0.3">
+        <v>9659.8636453777544</v>
+      </c>
+    </row>
+    <row r="13" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>14905</v>
       </c>
@@ -3534,25 +3729,25 @@
         <f t="shared" ca="1" si="1"/>
         <v>Иванов</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="10">
         <v>43878</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>2805.5993610614837</v>
-      </c>
-      <c r="T13" t="s">
-        <v>149</v>
+        <v>680.58229156617188</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V13" t="s">
-        <v>148</v>
-      </c>
-      <c r="W13" s="14">
+        <v>147</v>
+      </c>
+      <c r="W13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8505.3326332642519</v>
-      </c>
-    </row>
-    <row r="14" spans="6:23" x14ac:dyDescent="0.3">
+        <v>1784.0378082029629</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>19042</v>
       </c>
@@ -3561,27 +3756,27 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
-      </c>
-      <c r="R14" s="11">
+        <v>Иванов</v>
+      </c>
+      <c r="R14" s="10">
         <v>43879</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>2150.3333444674577</v>
-      </c>
-      <c r="T14" t="s">
+        <v>8737.9812769831406</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" t="s">
         <v>148</v>
       </c>
-      <c r="V14" t="s">
-        <v>149</v>
-      </c>
-      <c r="W14" s="14">
+      <c r="W14" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2275.0692414244013</v>
-      </c>
-    </row>
-    <row r="15" spans="6:23" x14ac:dyDescent="0.3">
+        <v>5000.2343121556769</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>23378</v>
       </c>
@@ -3590,27 +3785,27 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R15" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R15" s="10">
         <v>43880</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>2473.3102696423757</v>
-      </c>
-      <c r="T15" t="s">
-        <v>149</v>
+        <v>7725.374789472593</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V15" t="s">
-        <v>151</v>
-      </c>
-      <c r="W15" s="14">
+        <v>150</v>
+      </c>
+      <c r="W15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2654.7102430388259</v>
-      </c>
-    </row>
-    <row r="16" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6086.3484569897901</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUMIF(F6:F15,"&gt;17000",F6:F15)</f>
         <v>106957</v>
@@ -3620,27 +3815,27 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
-      </c>
-      <c r="R16" s="11">
+        <v>Иванов</v>
+      </c>
+      <c r="R16" s="10">
         <v>43881</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>3500.7753441160316</v>
-      </c>
-      <c r="T16" t="s">
-        <v>149</v>
+        <v>8626.7549997087754</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V16" t="s">
-        <v>151</v>
-      </c>
-      <c r="W16" s="14">
+        <v>150</v>
+      </c>
+      <c r="W16" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1809.4942081953402</v>
-      </c>
-    </row>
-    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
+        <v>1781.0676702408812</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F17">
         <f>COUNTIF(F6:F15,"&gt;17000")</f>
         <v>5</v>
@@ -3650,131 +3845,131 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
-      </c>
-      <c r="R17" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R17" s="10">
         <v>43882</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>9942.7191287870482</v>
-      </c>
-      <c r="T17" t="s">
+        <v>3527.066012281206</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V17" t="s">
         <v>148</v>
       </c>
-      <c r="V17" t="s">
-        <v>149</v>
-      </c>
-      <c r="W17" s="14">
+      <c r="W17" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3828.0461198979888</v>
-      </c>
-    </row>
-    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
+        <v>9993.3376120423818</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K18">
         <v>11</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R18" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R18" s="10">
         <v>43883</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>3145.5756536127155</v>
-      </c>
-      <c r="T18" t="s">
-        <v>148</v>
+        <v>2863.7286563683674</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="V18" t="s">
-        <v>151</v>
-      </c>
-      <c r="W18" s="14">
+        <v>150</v>
+      </c>
+      <c r="W18" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1915.0975461253638</v>
-      </c>
-    </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
+        <v>8574.3299304521588</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K19">
         <v>12</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R19" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R19" s="10">
         <v>43884</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>8897.500546888079</v>
-      </c>
-      <c r="T19" t="s">
-        <v>148</v>
+        <v>6530.5378436915771</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="V19" t="s">
-        <v>148</v>
-      </c>
-      <c r="W19" s="14">
+        <v>147</v>
+      </c>
+      <c r="W19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7536.8376709717968</v>
-      </c>
-    </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
+        <v>61.814932272055145</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>13</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R20" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R20" s="10">
         <v>43885</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>3805.6760331933137</v>
-      </c>
-      <c r="T20" t="s">
-        <v>148</v>
+        <v>8064.4504106747654</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="V20" t="s">
-        <v>151</v>
-      </c>
-      <c r="W20" s="14">
+        <v>150</v>
+      </c>
+      <c r="W20" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>428.04530145352794</v>
-      </c>
-    </row>
-    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
+        <v>2436.9449642519203</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K21">
         <v>14</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R21" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R21" s="10">
         <v>43886</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>9627.444972854164</v>
-      </c>
-      <c r="T21" t="s">
-        <v>149</v>
+        <v>6722.9229003696673</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V21" t="s">
-        <v>149</v>
-      </c>
-      <c r="W21" s="14">
+        <v>148</v>
+      </c>
+      <c r="W21" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8944.2542230911386</v>
-      </c>
-    </row>
-    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
+        <v>2874.6245876955177</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K22">
         <v>15</v>
       </c>
@@ -3782,162 +3977,162 @@
         <f t="shared" ca="1" si="1"/>
         <v>Петров</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="10">
         <v>43887</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>8734.3706118616101</v>
-      </c>
-      <c r="T22" t="s">
-        <v>149</v>
+        <v>5497.8560984772839</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V22" t="s">
-        <v>148</v>
-      </c>
-      <c r="W22" s="14">
+        <v>147</v>
+      </c>
+      <c r="W22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1121.5867235859423</v>
-      </c>
-    </row>
-    <row r="23" spans="6:23" x14ac:dyDescent="0.3">
+        <v>2005.2725773688019</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K23">
         <v>16</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
-      </c>
-      <c r="R23" s="11">
+        <v>Иванов</v>
+      </c>
+      <c r="R23" s="10">
         <v>43888</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>669.16915478973715</v>
-      </c>
-      <c r="T23" t="s">
+        <v>5354.1078380307135</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V23" t="s">
         <v>148</v>
       </c>
-      <c r="V23" t="s">
-        <v>149</v>
-      </c>
-      <c r="W23" s="14">
+      <c r="W23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>208.45928683069337</v>
-      </c>
-    </row>
-    <row r="24" spans="6:23" x14ac:dyDescent="0.3">
+        <v>4222.3860868486354</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K24">
         <v>17</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R24" s="11">
+        <v>Иванов</v>
+      </c>
+      <c r="R24" s="10">
         <v>43889</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>3954.2159643371665</v>
-      </c>
-      <c r="T24" t="s">
-        <v>148</v>
+        <v>6154.9416428508866</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="V24" t="s">
-        <v>151</v>
-      </c>
-      <c r="W24" s="14">
+        <v>150</v>
+      </c>
+      <c r="W24" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6446.9093804324093</v>
-      </c>
-    </row>
-    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
+        <v>8375.1732027519683</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K25">
         <v>18</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
-      </c>
-      <c r="R25" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R25" s="10">
         <v>43890</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>2962.3598765135007</v>
-      </c>
-      <c r="T25" t="s">
-        <v>149</v>
+        <v>1600.8222151425712</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V25" t="s">
-        <v>148</v>
-      </c>
-      <c r="W25" s="14">
+        <v>147</v>
+      </c>
+      <c r="W25" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1343.2084195413918</v>
-      </c>
-    </row>
-    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
+        <v>8627.9817560460906</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K26">
         <v>19</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
-      </c>
-      <c r="R26" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R26" s="10">
         <v>43891</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>9471.1304885529153</v>
-      </c>
-      <c r="T26" t="s">
-        <v>149</v>
+        <v>5780.2412793099038</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="V26" t="s">
-        <v>151</v>
-      </c>
-      <c r="W26" s="14">
+        <v>150</v>
+      </c>
+      <c r="W26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4832.3217890953483</v>
-      </c>
-    </row>
-    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6618.2861399750318</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K27">
         <v>20</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
-      </c>
-      <c r="R27" s="11">
+        <v>Сидоров</v>
+      </c>
+      <c r="R27" s="10">
         <v>43892</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1896.9103872664516</v>
-      </c>
-      <c r="T27" t="s">
-        <v>148</v>
+        <v>6745.5360818717199</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="V27" t="s">
-        <v>148</v>
-      </c>
-      <c r="W27" s="14">
+        <v>147</v>
+      </c>
+      <c r="W27" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6827.1389323011881</v>
-      </c>
-    </row>
-    <row r="28" spans="6:23" ht="18" x14ac:dyDescent="0.35">
+        <v>307.35970395734279</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="L28" t="b">
         <f ca="1">AND(COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Иванов"),COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Сидоров"))</f>
         <v>0</v>
       </c>
-      <c r="T28" s="12" t="str">
+      <c r="T28" s="15" t="str">
         <f ca="1">IF(SUMIF(T8:T27,"Иванов",S8:S27)&gt;SUMIF(T8:T27,"Петров",S8:S27),"Иванов","Петров")</f>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
     </row>
   </sheetData>
@@ -3947,309 +4142,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/Условное форматирование.xlsx
+++ b/excel/Условное форматирование.xlsx
@@ -1543,7 +1543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1721,24 +1721,190 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="7" tint="0.79998168889431442"/>
@@ -2185,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -2676,7 +2842,7 @@
   <dimension ref="C3:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,25 +2858,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="M3" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="Q3" s="11" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
@@ -2718,7 +2884,7 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>37178</v>
+        <v>37647</v>
       </c>
       <c r="E4" s="9">
         <v>16297</v>
@@ -2728,7 +2894,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>24557</v>
+        <v>23406</v>
       </c>
       <c r="J4" s="9">
         <v>16297</v>
@@ -2738,18 +2904,18 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>21613</v>
+        <v>19177</v>
       </c>
       <c r="O4" s="9">
         <v>16297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
@@ -2758,7 +2924,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
-        <v>13851</v>
+        <v>40282</v>
       </c>
       <c r="E5" s="9">
         <v>20756</v>
@@ -2768,7 +2934,7 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>22667</v>
+        <v>22789</v>
       </c>
       <c r="J5" s="9">
         <v>20756</v>
@@ -2778,18 +2944,18 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>21458</v>
+        <v>10193</v>
       </c>
       <c r="O5" s="9">
         <v>20756</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
@@ -2798,7 +2964,7 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>46439</v>
+        <v>38625</v>
       </c>
       <c r="E6" s="9">
         <v>19263</v>
@@ -2808,7 +2974,7 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>14770</v>
+        <v>23432</v>
       </c>
       <c r="J6" s="9">
         <v>19263</v>
@@ -2818,18 +2984,18 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>18046</v>
+        <v>12330</v>
       </c>
       <c r="O6" s="9">
         <v>19263</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
@@ -2838,7 +3004,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>34881</v>
+        <v>29844</v>
       </c>
       <c r="E7" s="9">
         <v>12306</v>
@@ -2848,7 +3014,7 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>23344</v>
+        <v>22065</v>
       </c>
       <c r="J7" s="9">
         <v>12306</v>
@@ -2858,14 +3024,14 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>17567</v>
+        <v>20724</v>
       </c>
       <c r="O7" s="9">
         <v>12306</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="3"/>
@@ -2878,7 +3044,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>48664</v>
+        <v>28324</v>
       </c>
       <c r="E8" s="9">
         <v>11131</v>
@@ -2888,7 +3054,7 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16788</v>
+        <v>14901</v>
       </c>
       <c r="J8" s="9">
         <v>11131</v>
@@ -2898,18 +3064,18 @@
       </c>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>18739</v>
+        <v>15303</v>
       </c>
       <c r="O8" s="9">
         <v>11131</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
@@ -2918,7 +3084,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45146</v>
+        <v>24878</v>
       </c>
       <c r="E9" s="9">
         <v>24518</v>
@@ -2928,7 +3094,7 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>18880</v>
+        <v>10923</v>
       </c>
       <c r="J9" s="9">
         <v>24518</v>
@@ -2938,18 +3104,18 @@
       </c>
       <c r="N9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>14618</v>
+        <v>19641</v>
       </c>
       <c r="O9" s="9">
         <v>24518</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
@@ -2958,7 +3124,7 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41494</v>
+        <v>27849</v>
       </c>
       <c r="E10" s="9">
         <v>10295</v>
@@ -2968,7 +3134,7 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>12228</v>
+        <v>20063</v>
       </c>
       <c r="J10" s="9">
         <v>10295</v>
@@ -2979,7 +3145,7 @@
       </c>
       <c r="R10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
@@ -2988,7 +3154,7 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>20969</v>
+        <v>16981</v>
       </c>
       <c r="E11" s="9">
         <v>14905</v>
@@ -2998,18 +3164,18 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>21116</v>
+        <v>14343</v>
       </c>
       <c r="J11" s="9">
         <v>14905</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
@@ -3018,7 +3184,7 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>10993</v>
+        <v>24677</v>
       </c>
       <c r="E12" s="9">
         <v>19042</v>
@@ -3028,18 +3194,18 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>18215</v>
+        <v>18115</v>
       </c>
       <c r="J12" s="9">
         <v>19042</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
@@ -3048,7 +3214,7 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>27448</v>
+        <v>19106</v>
       </c>
       <c r="E13" s="9">
         <v>23378</v>
@@ -3058,26 +3224,26 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>23502</v>
+        <v>13969</v>
       </c>
       <c r="J13" s="9">
         <v>23378</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
@@ -3146,8 +3312,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B4:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,6 +3325,10 @@
       <c r="B4" t="s">
         <v>139</v>
       </c>
+      <c r="C4">
+        <f ca="1">RANDBETWEEN(100,500)</f>
+        <v>466</v>
+      </c>
       <c r="L4">
         <v>16297</v>
       </c>
@@ -3167,6 +3337,10 @@
       <c r="B5" t="s">
         <v>140</v>
       </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C66" ca="1" si="0">RANDBETWEEN(100,500)</f>
+        <v>492</v>
+      </c>
       <c r="L5">
         <v>20756</v>
       </c>
@@ -3175,6 +3349,10 @@
       <c r="B6" t="s">
         <v>141</v>
       </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>284</v>
+      </c>
       <c r="L6">
         <v>19263</v>
       </c>
@@ -3183,6 +3361,10 @@
       <c r="B7" t="s">
         <v>145</v>
       </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>396</v>
+      </c>
       <c r="L7">
         <v>12306</v>
       </c>
@@ -3191,6 +3373,10 @@
       <c r="B8" t="s">
         <v>142</v>
       </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>274</v>
+      </c>
       <c r="L8">
         <v>11131</v>
       </c>
@@ -3199,6 +3385,10 @@
       <c r="B9" t="s">
         <v>143</v>
       </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>195</v>
+      </c>
       <c r="L9">
         <v>24518</v>
       </c>
@@ -3207,6 +3397,10 @@
       <c r="B10" t="s">
         <v>144</v>
       </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>373</v>
+      </c>
       <c r="L10">
         <v>10295</v>
       </c>
@@ -3215,6 +3409,10 @@
       <c r="B11" t="s">
         <v>139</v>
       </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
       <c r="L11">
         <v>14905</v>
       </c>
@@ -3223,6 +3421,10 @@
       <c r="B12" t="s">
         <v>140</v>
       </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>305</v>
+      </c>
       <c r="L12">
         <v>19042</v>
       </c>
@@ -3231,6 +3433,10 @@
       <c r="B13" t="s">
         <v>141</v>
       </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>186</v>
+      </c>
       <c r="L13">
         <v>23378</v>
       </c>
@@ -3239,277 +3445,489 @@
       <c r="B14" t="s">
         <v>145</v>
       </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>142</v>
       </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>476</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" ca="1" si="0"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" ca="1" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" ca="1" si="0"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" ca="1" si="0"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" ca="1" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" ca="1" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" ca="1" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" ca="1" si="0"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" ca="1" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" ca="1" si="0"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" ca="1" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" ca="1" si="0"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" ca="1" si="0"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" ca="1" si="0"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" ca="1" si="0"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" ca="1" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" ca="1" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" ca="1" si="0"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" ca="1" si="0"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" ca="1" si="0"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" ca="1" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" ca="1" si="0"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" ca="1" si="0"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" ca="1" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>144</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="0"/>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="L4:L13"/>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>OR(B4 = "суббота",B4="воскресение")</formula>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(B4="Среда",C4&lt;250)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B66">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>B44="Понедельник"</formula>
+  <conditionalFormatting sqref="B4:C665">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(B4="Среда",C4&gt;350)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3529,7 +3947,7 @@
   <cols>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="12" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3551,17 +3969,17 @@
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
         <v>Сидоров</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
       <c r="V7" t="s">
         <v>147</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>9788.8075251737628</v>
+        <v>9888.3913026426526</v>
       </c>
     </row>
     <row r="8" spans="6:23" x14ac:dyDescent="0.25">
@@ -3576,24 +3994,24 @@
       </c>
       <c r="L8" t="str">
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R8" s="10">
         <v>43873</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>908.63809474487357</v>
-      </c>
-      <c r="T8" s="14" t="s">
+        <v>942.1359320314582</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V8" t="s">
         <v>148</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="11">
         <f t="shared" ref="W8:W27" ca="1" si="0">RAND()*10000</f>
-        <v>6107.1122219338813</v>
+        <v>2197.0196510013316</v>
       </c>
     </row>
     <row r="9" spans="6:23" x14ac:dyDescent="0.25">
@@ -3613,19 +4031,19 @@
       <c r="R9" s="10">
         <v>43874</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="11">
         <f t="shared" ref="S9:S27" ca="1" si="2">RAND()*10000</f>
-        <v>1273.119354437745</v>
-      </c>
-      <c r="T9" s="14" t="s">
+        <v>3897.2298900851674</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V9" t="s">
         <v>148</v>
       </c>
-      <c r="W9" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4357.5765693275835</v>
+      <c r="W9" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2868.0125765501539</v>
       </c>
     </row>
     <row r="10" spans="6:23" x14ac:dyDescent="0.25">
@@ -3640,24 +4058,24 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R10" s="10">
         <v>43875</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5041.748463016399</v>
-      </c>
-      <c r="T10" s="14" t="s">
+        <v>5951.0912419595334</v>
+      </c>
+      <c r="T10" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V10" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3717.1876227458624</v>
+      <c r="W10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7883.3509331110763</v>
       </c>
     </row>
     <row r="11" spans="6:23" x14ac:dyDescent="0.25">
@@ -3674,19 +4092,19 @@
       <c r="R11" s="10">
         <v>43876</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7508.6080450108602</v>
-      </c>
-      <c r="T11" s="14" t="s">
+        <v>4778.705768105915</v>
+      </c>
+      <c r="T11" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V11" t="s">
         <v>150</v>
       </c>
-      <c r="W11" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2407.3205956401721</v>
+      <c r="W11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3547.6092266970095</v>
       </c>
     </row>
     <row r="12" spans="6:23" x14ac:dyDescent="0.25">
@@ -3698,24 +4116,24 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R12" s="10">
         <v>43877</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1402.0109639161603</v>
-      </c>
-      <c r="T12" s="14" t="s">
+        <v>6190.5250779100606</v>
+      </c>
+      <c r="T12" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V12" t="s">
         <v>150</v>
       </c>
-      <c r="W12" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9659.8636453777544</v>
+      <c r="W12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9281.4060540347455</v>
       </c>
     </row>
     <row r="13" spans="6:23" x14ac:dyDescent="0.25">
@@ -3727,24 +4145,24 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R13" s="10">
         <v>43878</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>680.58229156617188</v>
-      </c>
-      <c r="T13" s="14" t="s">
+        <v>9901.9468272931481</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V13" t="s">
         <v>147</v>
       </c>
-      <c r="W13" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1784.0378082029629</v>
+      <c r="W13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7618.7661106723726</v>
       </c>
     </row>
     <row r="14" spans="6:23" x14ac:dyDescent="0.25">
@@ -3756,24 +4174,24 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R14" s="10">
         <v>43879</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8737.9812769831406</v>
-      </c>
-      <c r="T14" s="14" t="s">
+        <v>2955.5991321276219</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V14" t="s">
         <v>148</v>
       </c>
-      <c r="W14" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5000.2343121556769</v>
+      <c r="W14" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1015.6059366353976</v>
       </c>
     </row>
     <row r="15" spans="6:23" x14ac:dyDescent="0.25">
@@ -3785,24 +4203,24 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R15" s="10">
         <v>43880</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7725.374789472593</v>
-      </c>
-      <c r="T15" s="14" t="s">
+        <v>3674.0729164568788</v>
+      </c>
+      <c r="T15" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V15" t="s">
         <v>150</v>
       </c>
-      <c r="W15" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6086.3484569897901</v>
+      <c r="W15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8849.2240988976482</v>
       </c>
     </row>
     <row r="16" spans="6:23" x14ac:dyDescent="0.25">
@@ -3815,24 +4233,24 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R16" s="10">
         <v>43881</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8626.7549997087754</v>
-      </c>
-      <c r="T16" s="14" t="s">
+        <v>9151.8952686864068</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V16" t="s">
         <v>150</v>
       </c>
-      <c r="W16" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1781.0676702408812</v>
+      <c r="W16" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1606.8676650495361</v>
       </c>
     </row>
     <row r="17" spans="6:23" x14ac:dyDescent="0.25">
@@ -3850,19 +4268,19 @@
       <c r="R17" s="10">
         <v>43882</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>3527.066012281206</v>
-      </c>
-      <c r="T17" s="14" t="s">
+        <v>2365.6218444358692</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V17" t="s">
         <v>148</v>
       </c>
-      <c r="W17" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9993.3376120423818</v>
+      <c r="W17" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6868.3985518960953</v>
       </c>
     </row>
     <row r="18" spans="6:23" x14ac:dyDescent="0.25">
@@ -3871,24 +4289,24 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R18" s="10">
         <v>43883</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2863.7286563683674</v>
-      </c>
-      <c r="T18" s="14" t="s">
+        <v>2578.5037469608528</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V18" t="s">
         <v>150</v>
       </c>
-      <c r="W18" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8574.3299304521588</v>
+      <c r="W18" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9167.8823680317892</v>
       </c>
     </row>
     <row r="19" spans="6:23" x14ac:dyDescent="0.25">
@@ -3897,24 +4315,24 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R19" s="10">
         <v>43884</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6530.5378436915771</v>
-      </c>
-      <c r="T19" s="14" t="s">
+        <v>2395.9812473436282</v>
+      </c>
+      <c r="T19" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V19" t="s">
         <v>147</v>
       </c>
-      <c r="W19" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>61.814932272055145</v>
+      <c r="W19" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>936.57267502722516</v>
       </c>
     </row>
     <row r="20" spans="6:23" x14ac:dyDescent="0.25">
@@ -3923,24 +4341,24 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R20" s="10">
         <v>43885</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8064.4504106747654</v>
-      </c>
-      <c r="T20" s="14" t="s">
+        <v>1696.4290471544564</v>
+      </c>
+      <c r="T20" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V20" t="s">
         <v>150</v>
       </c>
-      <c r="W20" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2436.9449642519203</v>
+      <c r="W20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4023.7919515078693</v>
       </c>
     </row>
     <row r="21" spans="6:23" x14ac:dyDescent="0.25">
@@ -3949,24 +4367,24 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R21" s="10">
         <v>43886</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6722.9229003696673</v>
-      </c>
-      <c r="T21" s="14" t="s">
+        <v>5043.5911721365001</v>
+      </c>
+      <c r="T21" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V21" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2874.6245876955177</v>
+      <c r="W21" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2697.4592031078028</v>
       </c>
     </row>
     <row r="22" spans="6:23" x14ac:dyDescent="0.25">
@@ -3975,24 +4393,24 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R22" s="10">
         <v>43887</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5497.8560984772839</v>
-      </c>
-      <c r="T22" s="14" t="s">
+        <v>386.4761760143731</v>
+      </c>
+      <c r="T22" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V22" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2005.2725773688019</v>
+      <c r="W22" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6128.027040697234</v>
       </c>
     </row>
     <row r="23" spans="6:23" x14ac:dyDescent="0.25">
@@ -4006,19 +4424,19 @@
       <c r="R23" s="10">
         <v>43888</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5354.1078380307135</v>
-      </c>
-      <c r="T23" s="14" t="s">
+        <v>1035.6332833868853</v>
+      </c>
+      <c r="T23" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V23" t="s">
         <v>148</v>
       </c>
-      <c r="W23" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4222.3860868486354</v>
+      <c r="W23" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1824.7646137385243</v>
       </c>
     </row>
     <row r="24" spans="6:23" x14ac:dyDescent="0.25">
@@ -4032,19 +4450,19 @@
       <c r="R24" s="10">
         <v>43889</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6154.9416428508866</v>
-      </c>
-      <c r="T24" s="14" t="s">
+        <v>7896.0405824317522</v>
+      </c>
+      <c r="T24" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V24" t="s">
         <v>150</v>
       </c>
-      <c r="W24" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8375.1732027519683</v>
+      <c r="W24" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2601.2267643316791</v>
       </c>
     </row>
     <row r="25" spans="6:23" x14ac:dyDescent="0.25">
@@ -4053,24 +4471,24 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R25" s="10">
         <v>43890</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1600.8222151425712</v>
-      </c>
-      <c r="T25" s="14" t="s">
+        <v>2106.8332461496198</v>
+      </c>
+      <c r="T25" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V25" t="s">
         <v>147</v>
       </c>
-      <c r="W25" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8627.9817560460906</v>
+      <c r="W25" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5962.4097094321205</v>
       </c>
     </row>
     <row r="26" spans="6:23" x14ac:dyDescent="0.25">
@@ -4079,24 +4497,24 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R26" s="10">
         <v>43891</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5780.2412793099038</v>
-      </c>
-      <c r="T26" s="14" t="s">
+        <v>8904.8274726481995</v>
+      </c>
+      <c r="T26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="V26" t="s">
         <v>150</v>
       </c>
-      <c r="W26" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6618.2861399750318</v>
+      <c r="W26" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7960.1058989054627</v>
       </c>
     </row>
     <row r="27" spans="6:23" x14ac:dyDescent="0.25">
@@ -4110,19 +4528,19 @@
       <c r="R27" s="10">
         <v>43892</v>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6745.5360818717199</v>
-      </c>
-      <c r="T27" s="14" t="s">
+        <v>6109.1579697143206</v>
+      </c>
+      <c r="T27" s="12" t="s">
         <v>147</v>
       </c>
       <c r="V27" t="s">
         <v>147</v>
       </c>
-      <c r="W27" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>307.35970395734279</v>
+      <c r="W27" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2912.350057943821</v>
       </c>
     </row>
     <row r="28" spans="6:23" ht="28.5" x14ac:dyDescent="0.45">
@@ -4130,9 +4548,9 @@
         <f ca="1">AND(COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Иванов"),COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Сидоров"))</f>
         <v>0</v>
       </c>
-      <c r="T28" s="15" t="str">
+      <c r="T28" s="13" t="str">
         <f ca="1">IF(SUMIF(T8:T27,"Иванов",S8:S27)&gt;SUMIF(T8:T27,"Петров",S8:S27),"Иванов","Петров")</f>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Условное форматирование.xlsx
+++ b/excel/Условное форматирование.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Базовый" sheetId="1" r:id="rId1"/>
@@ -1738,34 +1738,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1780,145 +1753,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2351,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -2884,7 +2718,7 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>37647</v>
+        <v>20662</v>
       </c>
       <c r="E4" s="9">
         <v>16297</v>
@@ -2894,7 +2728,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>23406</v>
+        <v>24474</v>
       </c>
       <c r="J4" s="9">
         <v>16297</v>
@@ -2904,18 +2738,18 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>19177</v>
+        <v>15261</v>
       </c>
       <c r="O4" s="9">
         <v>16297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
@@ -2924,7 +2758,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
-        <v>40282</v>
+        <v>15716</v>
       </c>
       <c r="E5" s="9">
         <v>20756</v>
@@ -2934,7 +2768,7 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>22789</v>
+        <v>13139</v>
       </c>
       <c r="J5" s="9">
         <v>20756</v>
@@ -2944,18 +2778,18 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>10193</v>
+        <v>17437</v>
       </c>
       <c r="O5" s="9">
         <v>20756</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
@@ -2964,7 +2798,7 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>38625</v>
+        <v>33813</v>
       </c>
       <c r="E6" s="9">
         <v>19263</v>
@@ -2974,7 +2808,7 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>23432</v>
+        <v>12241</v>
       </c>
       <c r="J6" s="9">
         <v>19263</v>
@@ -2984,18 +2818,18 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>12330</v>
+        <v>13789</v>
       </c>
       <c r="O6" s="9">
         <v>19263</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
@@ -3004,7 +2838,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>29844</v>
+        <v>28623</v>
       </c>
       <c r="E7" s="9">
         <v>12306</v>
@@ -3014,7 +2848,7 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>22065</v>
+        <v>12930</v>
       </c>
       <c r="J7" s="9">
         <v>12306</v>
@@ -3024,18 +2858,18 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>20724</v>
+        <v>22633</v>
       </c>
       <c r="O7" s="9">
         <v>12306</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
@@ -3044,7 +2878,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>28324</v>
+        <v>46347</v>
       </c>
       <c r="E8" s="9">
         <v>11131</v>
@@ -3054,7 +2888,7 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>14901</v>
+        <v>21454</v>
       </c>
       <c r="J8" s="9">
         <v>11131</v>
@@ -3064,18 +2898,18 @@
       </c>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15303</v>
+        <v>12157</v>
       </c>
       <c r="O8" s="9">
         <v>11131</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
@@ -3084,7 +2918,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>24878</v>
+        <v>21904</v>
       </c>
       <c r="E9" s="9">
         <v>24518</v>
@@ -3094,7 +2928,7 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>10923</v>
+        <v>14565</v>
       </c>
       <c r="J9" s="9">
         <v>24518</v>
@@ -3104,18 +2938,18 @@
       </c>
       <c r="N9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>19641</v>
+        <v>13725</v>
       </c>
       <c r="O9" s="9">
         <v>24518</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
@@ -3124,7 +2958,7 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>27849</v>
+        <v>36887</v>
       </c>
       <c r="E10" s="9">
         <v>10295</v>
@@ -3134,18 +2968,18 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>20063</v>
+        <v>11006</v>
       </c>
       <c r="J10" s="9">
         <v>10295</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
@@ -3154,7 +2988,7 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>16981</v>
+        <v>16675</v>
       </c>
       <c r="E11" s="9">
         <v>14905</v>
@@ -3164,18 +2998,18 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>14343</v>
+        <v>11868</v>
       </c>
       <c r="J11" s="9">
         <v>14905</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
@@ -3184,7 +3018,7 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>24677</v>
+        <v>22294</v>
       </c>
       <c r="E12" s="9">
         <v>19042</v>
@@ -3194,18 +3028,18 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>18115</v>
+        <v>10243</v>
       </c>
       <c r="J12" s="9">
         <v>19042</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
@@ -3214,7 +3048,7 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>19106</v>
+        <v>30602</v>
       </c>
       <c r="E13" s="9">
         <v>23378</v>
@@ -3224,18 +3058,18 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>13969</v>
+        <v>17041</v>
       </c>
       <c r="J13" s="9">
         <v>23378</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -3312,7 +3146,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B4:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3327,7 +3161,7 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L4">
         <v>16297</v>
@@ -3339,7 +3173,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C66" ca="1" si="0">RANDBETWEEN(100,500)</f>
-        <v>492</v>
+        <v>263</v>
       </c>
       <c r="L5">
         <v>20756</v>
@@ -3351,7 +3185,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L6">
         <v>19263</v>
@@ -3363,7 +3197,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="L7">
         <v>12306</v>
@@ -3375,7 +3209,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>500</v>
       </c>
       <c r="L8">
         <v>11131</v>
@@ -3387,7 +3221,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="L9">
         <v>24518</v>
@@ -3399,7 +3233,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L10">
         <v>10295</v>
@@ -3411,7 +3245,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>484</v>
       </c>
       <c r="L11">
         <v>14905</v>
@@ -3423,7 +3257,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="L12">
         <v>19042</v>
@@ -3435,7 +3269,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="L13">
         <v>23378</v>
@@ -3447,7 +3281,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -3456,7 +3290,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>476</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3465,7 +3299,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3474,7 +3308,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3317,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>299</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3492,7 +3326,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3501,7 +3335,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3510,7 +3344,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3353,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3528,7 +3362,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>404</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3537,7 +3371,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3380,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3555,7 +3389,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>364</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3564,7 +3398,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3573,7 +3407,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3582,7 +3416,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3591,7 +3425,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3600,7 +3434,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3609,7 +3443,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3618,7 +3452,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3627,7 +3461,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3636,7 +3470,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3645,7 +3479,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3654,7 +3488,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3663,7 +3497,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3672,7 +3506,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3681,7 +3515,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3690,7 +3524,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3699,7 +3533,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3708,7 +3542,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>474</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3717,7 +3551,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3726,7 +3560,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>480</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3735,7 +3569,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3744,7 +3578,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>397</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -3753,7 +3587,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -3762,7 +3596,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -3771,7 +3605,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -3780,7 +3614,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -3789,7 +3623,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -3798,7 +3632,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>267</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -3807,7 +3641,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -3816,7 +3650,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -3825,7 +3659,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -3834,7 +3668,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>287</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -3843,7 +3677,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -3852,7 +3686,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -3861,7 +3695,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>259</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3704,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -3879,7 +3713,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -3888,7 +3722,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -3897,7 +3731,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3906,7 +3740,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3915,18 +3749,18 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="L4:L13"/>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(B4="Среда",C4&lt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C665">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(B4="Среда",C4&gt;350)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3939,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:W28"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,9 +3799,12 @@
       <c r="F7">
         <v>20756</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7" t="str">
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>149</v>
@@ -3979,7 +3816,7 @@
       </c>
       <c r="W7" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>9888.3913026426526</v>
+        <v>9377.7651850082602</v>
       </c>
     </row>
     <row r="8" spans="6:23" x14ac:dyDescent="0.25">
@@ -3994,14 +3831,14 @@
       </c>
       <c r="L8" t="str">
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R8" s="10">
         <v>43873</v>
       </c>
       <c r="S8" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>942.1359320314582</v>
+        <v>3351.9824282584741</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>147</v>
@@ -4011,7 +3848,7 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" ref="W8:W27" ca="1" si="0">RAND()*10000</f>
-        <v>2197.0196510013316</v>
+        <v>9252.1300237731666</v>
       </c>
     </row>
     <row r="9" spans="6:23" x14ac:dyDescent="0.25">
@@ -4026,14 +3863,14 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L27" ca="1" si="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R9" s="10">
         <v>43874</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" ref="S9:S27" ca="1" si="2">RAND()*10000</f>
-        <v>3897.2298900851674</v>
+        <v>9858.3078602344467</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>148</v>
@@ -4043,7 +3880,7 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2868.0125765501539</v>
+        <v>4180.9081023396702</v>
       </c>
     </row>
     <row r="10" spans="6:23" x14ac:dyDescent="0.25">
@@ -4058,14 +3895,14 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R10" s="10">
         <v>43875</v>
       </c>
       <c r="S10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5951.0912419595334</v>
+        <v>6753.1639665163202</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>147</v>
@@ -4075,7 +3912,7 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7883.3509331110763</v>
+        <v>9469.4362356067104</v>
       </c>
     </row>
     <row r="11" spans="6:23" x14ac:dyDescent="0.25">
@@ -4087,14 +3924,14 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R11" s="10">
         <v>43876</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>4778.705768105915</v>
+        <v>5849.9715950918244</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>148</v>
@@ -4104,7 +3941,7 @@
       </c>
       <c r="W11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3547.6092266970095</v>
+        <v>5512.3260425570206</v>
       </c>
     </row>
     <row r="12" spans="6:23" x14ac:dyDescent="0.25">
@@ -4116,14 +3953,14 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R12" s="10">
         <v>43877</v>
       </c>
       <c r="S12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6190.5250779100606</v>
+        <v>4884.174616931803</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>148</v>
@@ -4133,7 +3970,7 @@
       </c>
       <c r="W12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9281.4060540347455</v>
+        <v>8817.2867034590818</v>
       </c>
     </row>
     <row r="13" spans="6:23" x14ac:dyDescent="0.25">
@@ -4152,7 +3989,7 @@
       </c>
       <c r="S13" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9901.9468272931481</v>
+        <v>3904.9149599455945</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>148</v>
@@ -4162,7 +3999,7 @@
       </c>
       <c r="W13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7618.7661106723726</v>
+        <v>1046.9554590985554</v>
       </c>
     </row>
     <row r="14" spans="6:23" x14ac:dyDescent="0.25">
@@ -4174,14 +4011,14 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R14" s="10">
         <v>43879</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2955.5991321276219</v>
+        <v>1170.620498868622</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>147</v>
@@ -4191,7 +4028,7 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1015.6059366353976</v>
+        <v>6852.9164949807919</v>
       </c>
     </row>
     <row r="15" spans="6:23" x14ac:dyDescent="0.25">
@@ -4203,14 +4040,14 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R15" s="10">
         <v>43880</v>
       </c>
       <c r="S15" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>3674.0729164568788</v>
+        <v>6887.8797028486179</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>148</v>
@@ -4220,7 +4057,7 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8849.2240988976482</v>
+        <v>6252.7050513974755</v>
       </c>
     </row>
     <row r="16" spans="6:23" x14ac:dyDescent="0.25">
@@ -4233,14 +4070,14 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R16" s="10">
         <v>43881</v>
       </c>
       <c r="S16" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9151.8952686864068</v>
+        <v>9566.2856224683674</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>148</v>
@@ -4250,7 +4087,7 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1606.8676650495361</v>
+        <v>6732.5525079952777</v>
       </c>
     </row>
     <row r="17" spans="6:23" x14ac:dyDescent="0.25">
@@ -4270,7 +4107,7 @@
       </c>
       <c r="S17" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2365.6218444358692</v>
+        <v>5174.1642071153547</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>147</v>
@@ -4280,7 +4117,7 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6868.3985518960953</v>
+        <v>4288.2282218915125</v>
       </c>
     </row>
     <row r="18" spans="6:23" x14ac:dyDescent="0.25">
@@ -4289,14 +4126,14 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R18" s="10">
         <v>43883</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2578.5037469608528</v>
+        <v>4934.8072147483499</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>147</v>
@@ -4306,7 +4143,7 @@
       </c>
       <c r="W18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9167.8823680317892</v>
+        <v>2834.1332481086633</v>
       </c>
     </row>
     <row r="19" spans="6:23" x14ac:dyDescent="0.25">
@@ -4322,7 +4159,7 @@
       </c>
       <c r="S19" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2395.9812473436282</v>
+        <v>1112.530467929409</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>147</v>
@@ -4332,7 +4169,7 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>936.57267502722516</v>
+        <v>7647.5866616085132</v>
       </c>
     </row>
     <row r="20" spans="6:23" x14ac:dyDescent="0.25">
@@ -4341,14 +4178,14 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R20" s="10">
         <v>43885</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1696.4290471544564</v>
+        <v>8385.9979595695313</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>147</v>
@@ -4358,7 +4195,7 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4023.7919515078693</v>
+        <v>1216.0441380686693</v>
       </c>
     </row>
     <row r="21" spans="6:23" x14ac:dyDescent="0.25">
@@ -4374,7 +4211,7 @@
       </c>
       <c r="S21" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5043.5911721365001</v>
+        <v>9479.9869473208637</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>148</v>
@@ -4384,7 +4221,7 @@
       </c>
       <c r="W21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2697.4592031078028</v>
+        <v>5214.3657014381388</v>
       </c>
     </row>
     <row r="22" spans="6:23" x14ac:dyDescent="0.25">
@@ -4393,14 +4230,14 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R22" s="10">
         <v>43887</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>386.4761760143731</v>
+        <v>5573.0121629759851</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>148</v>
@@ -4410,7 +4247,7 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6128.027040697234</v>
+        <v>6143.5302677118061</v>
       </c>
     </row>
     <row r="23" spans="6:23" x14ac:dyDescent="0.25">
@@ -4419,14 +4256,14 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R23" s="10">
         <v>43888</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1035.6332833868853</v>
+        <v>5515.2558767989449</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>147</v>
@@ -4436,7 +4273,7 @@
       </c>
       <c r="W23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1824.7646137385243</v>
+        <v>1541.2936470163952</v>
       </c>
     </row>
     <row r="24" spans="6:23" x14ac:dyDescent="0.25">
@@ -4445,14 +4282,14 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R24" s="10">
         <v>43889</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7896.0405824317522</v>
+        <v>5260.0433158067726</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>147</v>
@@ -4462,7 +4299,7 @@
       </c>
       <c r="W24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2601.2267643316791</v>
+        <v>9670.7243919339217</v>
       </c>
     </row>
     <row r="25" spans="6:23" x14ac:dyDescent="0.25">
@@ -4471,14 +4308,14 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R25" s="10">
         <v>43890</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2106.8332461496198</v>
+        <v>2879.4368073592714</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>148</v>
@@ -4488,7 +4325,7 @@
       </c>
       <c r="W25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5962.4097094321205</v>
+        <v>6900.8575224787546</v>
       </c>
     </row>
     <row r="26" spans="6:23" x14ac:dyDescent="0.25">
@@ -4504,7 +4341,7 @@
       </c>
       <c r="S26" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8904.8274726481995</v>
+        <v>7978.90185329017</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>148</v>
@@ -4514,7 +4351,7 @@
       </c>
       <c r="W26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7960.1058989054627</v>
+        <v>4471.5839384109577</v>
       </c>
     </row>
     <row r="27" spans="6:23" x14ac:dyDescent="0.25">
@@ -4523,14 +4360,14 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R27" s="10">
         <v>43892</v>
       </c>
       <c r="S27" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6109.1579697143206</v>
+        <v>7209.7067955026305</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>147</v>
@@ -4540,7 +4377,7 @@
       </c>
       <c r="W27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2912.350057943821</v>
+        <v>1609.9873231828433</v>
       </c>
     </row>
     <row r="28" spans="6:23" ht="28.5" x14ac:dyDescent="0.45">

--- a/excel/Условное форматирование.xlsx
+++ b/excel/Условное форматирование.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18996" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Базовый" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист5!$L$4:$L$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист6!$F$5:$F$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1541,7 +1542,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
@@ -1738,24 +1739,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1770,155 +1754,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2200,143 +2035,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
@@ -2352,177 +2187,177 @@
   <dimension ref="B4:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
@@ -2536,298 +2371,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>117</v>
       </c>
@@ -2845,19 +2678,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:18" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="14" t="s">
         <v>128</v>
       </c>
@@ -2878,13 +2711,13 @@
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C4" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>37647</v>
+        <v>38696</v>
       </c>
       <c r="E4" s="9">
         <v>16297</v>
@@ -2894,7 +2727,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>23406</v>
+        <v>12791</v>
       </c>
       <c r="J4" s="9">
         <v>16297</v>
@@ -2903,28 +2736,28 @@
         <v>131</v>
       </c>
       <c r="N4" s="9">
-        <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>19177</v>
+        <f t="shared" ref="N4:N9" ca="1" si="0">INT(RANDBETWEEN(10000,25000))</f>
+        <v>18508</v>
       </c>
       <c r="O4" s="9">
         <v>16297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
-        <v>40282</v>
+        <f t="shared" ref="D5:D13" ca="1" si="1">RANDBETWEEN(10000,50000)</f>
+        <v>49437</v>
       </c>
       <c r="E5" s="9">
         <v>20756</v>
@@ -2933,8 +2766,8 @@
         <v>119</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>22789</v>
+        <f t="shared" ref="I5:I13" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
+        <v>19404</v>
       </c>
       <c r="J5" s="9">
         <v>20756</v>
@@ -2943,28 +2776,28 @@
         <v>132</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>10193</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14400</v>
       </c>
       <c r="O5" s="9">
         <v>20756</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>38625</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25029</v>
       </c>
       <c r="E6" s="9">
         <v>19263</v>
@@ -2973,8 +2806,8 @@
         <v>120</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>23432</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21572</v>
       </c>
       <c r="J6" s="9">
         <v>19263</v>
@@ -2983,28 +2816,28 @@
         <v>133</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>12330</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23984</v>
       </c>
       <c r="O6" s="9">
         <v>19263</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>29844</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20781</v>
       </c>
       <c r="E7" s="9">
         <v>12306</v>
@@ -3013,8 +2846,8 @@
         <v>121</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>22065</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13832</v>
       </c>
       <c r="J7" s="9">
         <v>12306</v>
@@ -3023,28 +2856,28 @@
         <v>134</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>20724</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22291</v>
       </c>
       <c r="O7" s="9">
         <v>12306</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>28324</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14225</v>
       </c>
       <c r="E8" s="9">
         <v>11131</v>
@@ -3053,8 +2886,8 @@
         <v>122</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>14901</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>15108</v>
       </c>
       <c r="J8" s="9">
         <v>11131</v>
@@ -3063,28 +2896,28 @@
         <v>135</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>15303</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10182</v>
       </c>
       <c r="O8" s="9">
         <v>11131</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>24878</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21956</v>
       </c>
       <c r="E9" s="9">
         <v>24518</v>
@@ -3093,8 +2926,8 @@
         <v>123</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>10923</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19509</v>
       </c>
       <c r="J9" s="9">
         <v>24518</v>
@@ -3103,28 +2936,28 @@
         <v>136</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>19641</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12167</v>
       </c>
       <c r="O9" s="9">
         <v>24518</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>27849</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11056</v>
       </c>
       <c r="E10" s="9">
         <v>10295</v>
@@ -3133,28 +2966,28 @@
         <v>124</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>20063</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18192</v>
       </c>
       <c r="J10" s="9">
         <v>10295</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>16981</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45609</v>
       </c>
       <c r="E11" s="9">
         <v>14905</v>
@@ -3163,28 +2996,28 @@
         <v>125</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>14343</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11358</v>
       </c>
       <c r="J11" s="9">
         <v>14905</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>24677</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23513</v>
       </c>
       <c r="E12" s="9">
         <v>19042</v>
@@ -3193,28 +3026,28 @@
         <v>126</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18115</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16976</v>
       </c>
       <c r="J12" s="9">
         <v>19042</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>19106</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23297</v>
       </c>
       <c r="E13" s="9">
         <v>23378</v>
@@ -3223,74 +3056,74 @@
         <v>127</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>13969</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>15510</v>
       </c>
       <c r="J13" s="9">
         <v>23378</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C19" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>14</v>
       </c>
@@ -3312,496 +3145,496 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B4:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>139</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>466</v>
+        <v>345</v>
       </c>
       <c r="L4">
         <v>16297</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>140</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C66" ca="1" si="0">RANDBETWEEN(100,500)</f>
-        <v>492</v>
+        <v>300</v>
       </c>
       <c r="L5">
         <v>20756</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>141</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>284</v>
+        <v>474</v>
       </c>
       <c r="L6">
         <v>19263</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>275</v>
       </c>
       <c r="L7">
         <v>12306</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>142</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="L8">
         <v>11131</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>143</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L9">
         <v>24518</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>144</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L10">
         <v>10295</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>139</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="L11">
         <v>14905</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>140</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="L12">
         <v>19042</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>141</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="L13">
         <v>23378</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>145</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>142</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>143</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>144</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>139</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>141</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>145</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>142</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>143</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>144</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>139</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>140</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>141</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>145</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>142</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>143</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>144</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>139</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>140</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>141</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>145</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>143</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>144</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>139</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>140</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>141</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>145</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>142</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>474</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>143</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>144</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>139</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>140</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>141</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>145</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>142</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>143</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>144</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>139</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>140</v>
       </c>
@@ -3810,124 +3643,122 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>141</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>145</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>142</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>143</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>144</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>139</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>140</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>141</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>145</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>142</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>143</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>144</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="L4:L13"/>
-  <conditionalFormatting sqref="B4:B66">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="B4:C66">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(B4="Среда",C4&gt;350)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(B4="Среда",C4&lt;250)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C665">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(B4="Среда",C4&gt;350)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3940,28 +3771,28 @@
   <dimension ref="F5:W28"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>16297</v>
       </c>
     </row>
-    <row r="7" spans="6:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:23" ht="18" x14ac:dyDescent="0.35">
       <c r="F7">
         <v>20756</v>
       </c>
@@ -3979,10 +3810,10 @@
       </c>
       <c r="W7" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>9888.3913026426526</v>
-      </c>
-    </row>
-    <row r="8" spans="6:23" x14ac:dyDescent="0.25">
+        <v>7528.9828920205937</v>
+      </c>
+    </row>
+    <row r="8" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F8">
         <v>19263</v>
       </c>
@@ -3994,14 +3825,14 @@
       </c>
       <c r="L8" t="str">
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R8" s="10">
         <v>43873</v>
       </c>
       <c r="S8" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>942.1359320314582</v>
+        <v>7107.6490191289768</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>147</v>
@@ -4011,10 +3842,10 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" ref="W8:W27" ca="1" si="0">RAND()*10000</f>
-        <v>2197.0196510013316</v>
-      </c>
-    </row>
-    <row r="9" spans="6:23" x14ac:dyDescent="0.25">
+        <v>7652.3661971093989</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>12306</v>
       </c>
@@ -4026,14 +3857,14 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L27" ca="1" si="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R9" s="10">
         <v>43874</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" ref="S9:S27" ca="1" si="2">RAND()*10000</f>
-        <v>3897.2298900851674</v>
+        <v>899.02040891314152</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>148</v>
@@ -4043,10 +3874,10 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2868.0125765501539</v>
-      </c>
-    </row>
-    <row r="10" spans="6:23" x14ac:dyDescent="0.25">
+        <v>4822.1581694029346</v>
+      </c>
+    </row>
+    <row r="10" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>11131</v>
       </c>
@@ -4058,14 +3889,14 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R10" s="10">
         <v>43875</v>
       </c>
       <c r="S10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5951.0912419595334</v>
+        <v>9144.4767988390504</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>147</v>
@@ -4075,10 +3906,10 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7883.3509331110763</v>
-      </c>
-    </row>
-    <row r="11" spans="6:23" x14ac:dyDescent="0.25">
+        <v>120.36017854242243</v>
+      </c>
+    </row>
+    <row r="11" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>24518</v>
       </c>
@@ -4087,14 +3918,14 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R11" s="10">
         <v>43876</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>4778.705768105915</v>
+        <v>1894.8350624876186</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>148</v>
@@ -4104,10 +3935,10 @@
       </c>
       <c r="W11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3547.6092266970095</v>
-      </c>
-    </row>
-    <row r="12" spans="6:23" x14ac:dyDescent="0.25">
+        <v>3404.0316987418464</v>
+      </c>
+    </row>
+    <row r="12" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>10295</v>
       </c>
@@ -4116,14 +3947,14 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R12" s="10">
         <v>43877</v>
       </c>
       <c r="S12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6190.5250779100606</v>
+        <v>6043.7901608376651</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>148</v>
@@ -4133,10 +3964,10 @@
       </c>
       <c r="W12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9281.4060540347455</v>
-      </c>
-    </row>
-    <row r="13" spans="6:23" x14ac:dyDescent="0.25">
+        <v>3421.149756468923</v>
+      </c>
+    </row>
+    <row r="13" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>14905</v>
       </c>
@@ -4152,7 +3983,7 @@
       </c>
       <c r="S13" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9901.9468272931481</v>
+        <v>5965.586212711165</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>148</v>
@@ -4162,10 +3993,10 @@
       </c>
       <c r="W13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7618.7661106723726</v>
-      </c>
-    </row>
-    <row r="14" spans="6:23" x14ac:dyDescent="0.25">
+        <v>1429.635474513361</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>19042</v>
       </c>
@@ -4174,14 +4005,14 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R14" s="10">
         <v>43879</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2955.5991321276219</v>
+        <v>9568.5071007938768</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>147</v>
@@ -4191,10 +4022,10 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1015.6059366353976</v>
-      </c>
-    </row>
-    <row r="15" spans="6:23" x14ac:dyDescent="0.25">
+        <v>5107.6411348974261</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>23378</v>
       </c>
@@ -4210,7 +4041,7 @@
       </c>
       <c r="S15" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>3674.0729164568788</v>
+        <v>2553.8658728418595</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>148</v>
@@ -4220,10 +4051,10 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8849.2240988976482</v>
-      </c>
-    </row>
-    <row r="16" spans="6:23" x14ac:dyDescent="0.25">
+        <v>6737.3565894064523</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F16">
         <f>SUMIF(F6:F15,"&gt;17000",F6:F15)</f>
         <v>106957</v>
@@ -4240,7 +4071,7 @@
       </c>
       <c r="S16" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9151.8952686864068</v>
+        <v>2587.8475308167194</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>148</v>
@@ -4250,10 +4081,10 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1606.8676650495361</v>
-      </c>
-    </row>
-    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
+        <v>897.06712366199986</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F17">
         <f>COUNTIF(F6:F15,"&gt;17000")</f>
         <v>5</v>
@@ -4263,14 +4094,14 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R17" s="10">
         <v>43882</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2365.6218444358692</v>
+        <v>7381.2878291456864</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>147</v>
@@ -4280,23 +4111,23 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6868.3985518960953</v>
-      </c>
-    </row>
-    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
+        <v>8680.1171600500311</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K18">
         <v>11</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R18" s="10">
         <v>43883</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2578.5037469608528</v>
+        <v>4749.4353443333912</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>147</v>
@@ -4306,10 +4137,10 @@
       </c>
       <c r="W18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9167.8823680317892</v>
-      </c>
-    </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
+        <v>6700.396565305492</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K19">
         <v>12</v>
       </c>
@@ -4322,7 +4153,7 @@
       </c>
       <c r="S19" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2395.9812473436282</v>
+        <v>2926.3030404614842</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>147</v>
@@ -4332,10 +4163,10 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>936.57267502722516</v>
-      </c>
-    </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
+        <v>5321.5701862895303</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K20">
         <v>13</v>
       </c>
@@ -4348,7 +4179,7 @@
       </c>
       <c r="S20" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1696.4290471544564</v>
+        <v>3663.9250750668307</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>147</v>
@@ -4358,23 +4189,23 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4023.7919515078693</v>
-      </c>
-    </row>
-    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
+        <v>3204.9324827960922</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K21">
         <v>14</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R21" s="10">
         <v>43886</v>
       </c>
       <c r="S21" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5043.5911721365001</v>
+        <v>2661.5319452569042</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>148</v>
@@ -4384,10 +4215,10 @@
       </c>
       <c r="W21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2697.4592031078028</v>
-      </c>
-    </row>
-    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
+        <v>850.97433215173828</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K22">
         <v>15</v>
       </c>
@@ -4400,7 +4231,7 @@
       </c>
       <c r="S22" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>386.4761760143731</v>
+        <v>2758.6196053509361</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>148</v>
@@ -4410,23 +4241,23 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6128.027040697234</v>
-      </c>
-    </row>
-    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
+        <v>4330.2955182876221</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K23">
         <v>16</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R23" s="10">
         <v>43888</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1035.6332833868853</v>
+        <v>9258.0772335607162</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>147</v>
@@ -4436,23 +4267,23 @@
       </c>
       <c r="W23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1824.7646137385243</v>
-      </c>
-    </row>
-    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
+        <v>8820.9939247503044</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K24">
         <v>17</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R24" s="10">
         <v>43889</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7896.0405824317522</v>
+        <v>8393.4947538338474</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>147</v>
@@ -4462,23 +4293,23 @@
       </c>
       <c r="W24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2601.2267643316791</v>
-      </c>
-    </row>
-    <row r="25" spans="6:23" x14ac:dyDescent="0.25">
+        <v>5241.1578384674231</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K25">
         <v>18</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R25" s="10">
         <v>43890</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2106.8332461496198</v>
+        <v>2988.7837158458351</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>148</v>
@@ -4488,23 +4319,23 @@
       </c>
       <c r="W25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5962.4097094321205</v>
-      </c>
-    </row>
-    <row r="26" spans="6:23" x14ac:dyDescent="0.25">
+        <v>4744.9948609742178</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K26">
         <v>19</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R26" s="10">
         <v>43891</v>
       </c>
       <c r="S26" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8904.8274726481995</v>
+        <v>6546.0325038823112</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>148</v>
@@ -4514,23 +4345,23 @@
       </c>
       <c r="W26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7960.1058989054627</v>
-      </c>
-    </row>
-    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
+        <v>9216.3497009798248</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K27">
         <v>20</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R27" s="10">
         <v>43892</v>
       </c>
       <c r="S27" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6109.1579697143206</v>
+        <v>1528.4051461429194</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>147</v>
@@ -4540,17 +4371,17 @@
       </c>
       <c r="W27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2912.350057943821</v>
-      </c>
-    </row>
-    <row r="28" spans="6:23" ht="28.5" x14ac:dyDescent="0.45">
+        <v>1775.337834736418</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="L28" t="b">
         <f ca="1">AND(COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Иванов"),COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Сидоров"))</f>
         <v>0</v>
       </c>
       <c r="T28" s="13" t="str">
         <f ca="1">IF(SUMIF(T8:T27,"Иванов",S8:S27)&gt;SUMIF(T8:T27,"Петров",S8:S27),"Иванов","Петров")</f>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Условное форматирование.xlsx
+++ b/excel/Условное форматирование.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18996" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Базовый" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист5!$L$4:$L$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист6!$F$5:$F$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1542,7 +1541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
@@ -2039,139 +2038,139 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
@@ -2190,174 +2189,174 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
@@ -2371,296 +2370,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>117</v>
       </c>
@@ -2678,19 +2677,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
         <v>128</v>
       </c>
@@ -2711,13 +2710,13 @@
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>38696</v>
+        <v>21433</v>
       </c>
       <c r="E4" s="9">
         <v>16297</v>
@@ -2727,7 +2726,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>12791</v>
+        <v>24986</v>
       </c>
       <c r="J4" s="9">
         <v>16297</v>
@@ -2737,27 +2736,27 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N9" ca="1" si="0">INT(RANDBETWEEN(10000,25000))</f>
-        <v>18508</v>
+        <v>11220</v>
       </c>
       <c r="O4" s="9">
         <v>16297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ref="D5:D13" ca="1" si="1">RANDBETWEEN(10000,50000)</f>
-        <v>49437</v>
+        <v>32497</v>
       </c>
       <c r="E5" s="9">
         <v>20756</v>
@@ -2767,7 +2766,7 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I13" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>19404</v>
+        <v>11386</v>
       </c>
       <c r="J5" s="9">
         <v>20756</v>
@@ -2777,27 +2776,27 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>14400</v>
+        <v>10944</v>
       </c>
       <c r="O5" s="9">
         <v>20756</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>25029</v>
+        <v>36996</v>
       </c>
       <c r="E6" s="9">
         <v>19263</v>
@@ -2807,7 +2806,7 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>21572</v>
+        <v>17805</v>
       </c>
       <c r="J6" s="9">
         <v>19263</v>
@@ -2817,27 +2816,27 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>23984</v>
+        <v>11367</v>
       </c>
       <c r="O6" s="9">
         <v>19263</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>20781</v>
+        <v>32955</v>
       </c>
       <c r="E7" s="9">
         <v>12306</v>
@@ -2847,7 +2846,7 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>13832</v>
+        <v>21278</v>
       </c>
       <c r="J7" s="9">
         <v>12306</v>
@@ -2857,27 +2856,27 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>22291</v>
+        <v>21699</v>
       </c>
       <c r="O7" s="9">
         <v>12306</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>14225</v>
+        <v>25009</v>
       </c>
       <c r="E8" s="9">
         <v>11131</v>
@@ -2887,7 +2886,7 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15108</v>
+        <v>23626</v>
       </c>
       <c r="J8" s="9">
         <v>11131</v>
@@ -2897,27 +2896,27 @@
       </c>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>10182</v>
+        <v>12520</v>
       </c>
       <c r="O8" s="9">
         <v>11131</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>21956</v>
+        <v>15725</v>
       </c>
       <c r="E9" s="9">
         <v>24518</v>
@@ -2927,7 +2926,7 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>19509</v>
+        <v>12679</v>
       </c>
       <c r="J9" s="9">
         <v>24518</v>
@@ -2937,27 +2936,27 @@
       </c>
       <c r="N9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>12167</v>
+        <v>13463</v>
       </c>
       <c r="O9" s="9">
         <v>24518</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>11056</v>
+        <v>14269</v>
       </c>
       <c r="E10" s="9">
         <v>10295</v>
@@ -2967,27 +2966,27 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>18192</v>
+        <v>22038</v>
       </c>
       <c r="J10" s="9">
         <v>10295</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>45609</v>
+        <v>42654</v>
       </c>
       <c r="E11" s="9">
         <v>14905</v>
@@ -2997,27 +2996,27 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>11358</v>
+        <v>24222</v>
       </c>
       <c r="J11" s="9">
         <v>14905</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>23513</v>
+        <v>46848</v>
       </c>
       <c r="E12" s="9">
         <v>19042</v>
@@ -3027,27 +3026,27 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>16976</v>
+        <v>15279</v>
       </c>
       <c r="J12" s="9">
         <v>19042</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>23297</v>
+        <v>12182</v>
       </c>
       <c r="E13" s="9">
         <v>23378</v>
@@ -3057,73 +3056,73 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15510</v>
+        <v>21904</v>
       </c>
       <c r="J13" s="9">
         <v>23378</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>14</v>
       </c>
@@ -3145,610 +3144,610 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B4:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>139</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="L4">
         <v>16297</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>140</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C66" ca="1" si="0">RANDBETWEEN(100,500)</f>
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L5">
         <v>20756</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>141</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="L6">
         <v>19263</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="L7">
         <v>12306</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>142</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="L8">
         <v>11131</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>143</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="L9">
         <v>24518</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>144</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="L10">
         <v>10295</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>139</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L11">
         <v>14905</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>140</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>261</v>
       </c>
       <c r="L12">
         <v>19042</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>141</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>487</v>
       </c>
       <c r="L13">
         <v>23378</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>145</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>142</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>143</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>144</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>139</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>141</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>145</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>142</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>143</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>144</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>462</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>139</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>140</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>141</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>145</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>142</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>143</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>144</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>424</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>140</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>141</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>145</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>143</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>144</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>139</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>140</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>141</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>142</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>143</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>144</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>414</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>139</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>140</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>141</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>145</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>142</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>143</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>144</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>139</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>140</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>141</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>145</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>142</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>143</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>144</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>139</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>140</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>141</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>142</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>143</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>144</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3770,29 +3769,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:W28"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>16297</v>
       </c>
     </row>
-    <row r="7" spans="6:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>20756</v>
       </c>
@@ -3810,10 +3809,10 @@
       </c>
       <c r="W7" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>7528.9828920205937</v>
-      </c>
-    </row>
-    <row r="8" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6919.8850276694247</v>
+      </c>
+    </row>
+    <row r="8" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>19263</v>
       </c>
@@ -3832,7 +3831,7 @@
       </c>
       <c r="S8" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>7107.6490191289768</v>
+        <v>8223.537765811785</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>147</v>
@@ -3842,10 +3841,10 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" ref="W8:W27" ca="1" si="0">RAND()*10000</f>
-        <v>7652.3661971093989</v>
-      </c>
-    </row>
-    <row r="9" spans="6:23" x14ac:dyDescent="0.3">
+        <v>9843.4252933554981</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>12306</v>
       </c>
@@ -3857,14 +3856,14 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L27" ca="1" si="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R9" s="10">
         <v>43874</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" ref="S9:S27" ca="1" si="2">RAND()*10000</f>
-        <v>899.02040891314152</v>
+        <v>560.07623534775064</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>148</v>
@@ -3874,10 +3873,10 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4822.1581694029346</v>
-      </c>
-    </row>
-    <row r="10" spans="6:23" x14ac:dyDescent="0.3">
+        <v>9182.1189957966853</v>
+      </c>
+    </row>
+    <row r="10" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>11131</v>
       </c>
@@ -3896,7 +3895,7 @@
       </c>
       <c r="S10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9144.4767988390504</v>
+        <v>5106.3745466400942</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>147</v>
@@ -3906,10 +3905,10 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>120.36017854242243</v>
-      </c>
-    </row>
-    <row r="11" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6589.6534230827438</v>
+      </c>
+    </row>
+    <row r="11" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>24518</v>
       </c>
@@ -3918,14 +3917,14 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R11" s="10">
         <v>43876</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1894.8350624876186</v>
+        <v>8700.2246376591447</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>148</v>
@@ -3935,10 +3934,10 @@
       </c>
       <c r="W11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3404.0316987418464</v>
-      </c>
-    </row>
-    <row r="12" spans="6:23" x14ac:dyDescent="0.3">
+        <v>4465.3064063627335</v>
+      </c>
+    </row>
+    <row r="12" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>10295</v>
       </c>
@@ -3954,7 +3953,7 @@
       </c>
       <c r="S12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6043.7901608376651</v>
+        <v>9882.9457262633969</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>148</v>
@@ -3964,10 +3963,10 @@
       </c>
       <c r="W12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3421.149756468923</v>
-      </c>
-    </row>
-    <row r="13" spans="6:23" x14ac:dyDescent="0.3">
+        <v>7010.5830510538626</v>
+      </c>
+    </row>
+    <row r="13" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>14905</v>
       </c>
@@ -3983,7 +3982,7 @@
       </c>
       <c r="S13" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5965.586212711165</v>
+        <v>5053.7527388099297</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>148</v>
@@ -3993,10 +3992,10 @@
       </c>
       <c r="W13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1429.635474513361</v>
-      </c>
-    </row>
-    <row r="14" spans="6:23" x14ac:dyDescent="0.3">
+        <v>4382.9869136839252</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>19042</v>
       </c>
@@ -4005,14 +4004,14 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R14" s="10">
         <v>43879</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9568.5071007938768</v>
+        <v>2405.191506004267</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>147</v>
@@ -4022,10 +4021,10 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5107.6411348974261</v>
-      </c>
-    </row>
-    <row r="15" spans="6:23" x14ac:dyDescent="0.3">
+        <v>3708.3213340837974</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>23378</v>
       </c>
@@ -4041,7 +4040,7 @@
       </c>
       <c r="S15" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2553.8658728418595</v>
+        <v>3352.2572417264951</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>148</v>
@@ -4051,10 +4050,10 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6737.3565894064523</v>
-      </c>
-    </row>
-    <row r="16" spans="6:23" x14ac:dyDescent="0.3">
+        <v>1042.9325644942699</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUMIF(F6:F15,"&gt;17000",F6:F15)</f>
         <v>106957</v>
@@ -4064,14 +4063,14 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R16" s="10">
         <v>43881</v>
       </c>
       <c r="S16" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2587.8475308167194</v>
+        <v>218.16336321332619</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>148</v>
@@ -4081,10 +4080,10 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>897.06712366199986</v>
-      </c>
-    </row>
-    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
+        <v>2980.2575064167204</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F17">
         <f>COUNTIF(F6:F15,"&gt;17000")</f>
         <v>5</v>
@@ -4101,7 +4100,7 @@
       </c>
       <c r="S17" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7381.2878291456864</v>
+        <v>9262.640290982381</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>147</v>
@@ -4111,23 +4110,23 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8680.1171600500311</v>
-      </c>
-    </row>
-    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
+        <v>2610.34342557831</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K18">
         <v>11</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R18" s="10">
         <v>43883</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>4749.4353443333912</v>
+        <v>8612.2831327722943</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>147</v>
@@ -4137,23 +4136,23 @@
       </c>
       <c r="W18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.396565305492</v>
-      </c>
-    </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6180.1803178181281</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K19">
         <v>12</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R19" s="10">
         <v>43884</v>
       </c>
       <c r="S19" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2926.3030404614842</v>
+        <v>4565.292980324205</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>147</v>
@@ -4163,23 +4162,23 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5321.5701862895303</v>
-      </c>
-    </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
+        <v>1032.3875361344838</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>13</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R20" s="10">
         <v>43885</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>3663.9250750668307</v>
+        <v>9007.5705303638479</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>147</v>
@@ -4189,10 +4188,10 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3204.9324827960922</v>
-      </c>
-    </row>
-    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
+        <v>4723.350846444363</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K21">
         <v>14</v>
       </c>
@@ -4205,7 +4204,7 @@
       </c>
       <c r="S21" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2661.5319452569042</v>
+        <v>7151.4556115314463</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>148</v>
@@ -4215,10 +4214,10 @@
       </c>
       <c r="W21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>850.97433215173828</v>
-      </c>
-    </row>
-    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
+        <v>6319.8046237350572</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K22">
         <v>15</v>
       </c>
@@ -4231,7 +4230,7 @@
       </c>
       <c r="S22" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2758.6196053509361</v>
+        <v>9492.875371351869</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>148</v>
@@ -4241,23 +4240,23 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4330.2955182876221</v>
-      </c>
-    </row>
-    <row r="23" spans="6:23" x14ac:dyDescent="0.3">
+        <v>9976.165826276083</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K23">
         <v>16</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R23" s="10">
         <v>43888</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9258.0772335607162</v>
+        <v>7710.8680517220655</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>147</v>
@@ -4267,23 +4266,23 @@
       </c>
       <c r="W23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8820.9939247503044</v>
-      </c>
-    </row>
-    <row r="24" spans="6:23" x14ac:dyDescent="0.3">
+        <v>751.78791281062422</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K24">
         <v>17</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R24" s="10">
         <v>43889</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8393.4947538338474</v>
+        <v>6836.3182342390473</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>147</v>
@@ -4293,23 +4292,23 @@
       </c>
       <c r="W24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5241.1578384674231</v>
-      </c>
-    </row>
-    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
+        <v>7597.3036365712824</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K25">
         <v>18</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R25" s="10">
         <v>43890</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2988.7837158458351</v>
+        <v>9707.0973734683193</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>148</v>
@@ -4319,10 +4318,10 @@
       </c>
       <c r="W25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4744.9948609742178</v>
-      </c>
-    </row>
-    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
+        <v>8770.8297131901709</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K26">
         <v>19</v>
       </c>
@@ -4335,7 +4334,7 @@
       </c>
       <c r="S26" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6546.0325038823112</v>
+        <v>9352.8067547829251</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>148</v>
@@ -4345,10 +4344,10 @@
       </c>
       <c r="W26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9216.3497009798248</v>
-      </c>
-    </row>
-    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
+        <v>504.9766300394931</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
       <c r="K27">
         <v>20</v>
       </c>
@@ -4361,7 +4360,7 @@
       </c>
       <c r="S27" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1528.4051461429194</v>
+        <v>9834.3008495865051</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>147</v>
@@ -4371,10 +4370,10 @@
       </c>
       <c r="W27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1775.337834736418</v>
-      </c>
-    </row>
-    <row r="28" spans="6:23" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>9343.28766874963</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="L28" t="b">
         <f ca="1">AND(COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Иванов"),COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Сидоров"))</f>
         <v>0</v>

--- a/excel/Условное форматирование.xlsx
+++ b/excel/Условное форматирование.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9195" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Базовый" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист5!$L$4:$L$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист6!$F$5:$F$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>21433</v>
+        <v>31777</v>
       </c>
       <c r="E4" s="9">
         <v>16297</v>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>24986</v>
+        <v>14056</v>
       </c>
       <c r="J4" s="9">
         <v>16297</v>
@@ -2736,18 +2736,18 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N9" ca="1" si="0">INT(RANDBETWEEN(10000,25000))</f>
-        <v>11220</v>
+        <v>21574</v>
       </c>
       <c r="O4" s="9">
         <v>16297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" ref="D5:D13" ca="1" si="1">RANDBETWEEN(10000,50000)</f>
-        <v>32497</v>
+        <v>44697</v>
       </c>
       <c r="E5" s="9">
         <v>20756</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I13" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>11386</v>
+        <v>13650</v>
       </c>
       <c r="J5" s="9">
         <v>20756</v>
@@ -2776,18 +2776,18 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>10944</v>
+        <v>17263</v>
       </c>
       <c r="O5" s="9">
         <v>20756</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>36996</v>
+        <v>44197</v>
       </c>
       <c r="E6" s="9">
         <v>19263</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>17805</v>
+        <v>16575</v>
       </c>
       <c r="J6" s="9">
         <v>19263</v>
@@ -2816,18 +2816,18 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>11367</v>
+        <v>12821</v>
       </c>
       <c r="O6" s="9">
         <v>19263</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>32955</v>
+        <v>16845</v>
       </c>
       <c r="E7" s="9">
         <v>12306</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>21278</v>
+        <v>18029</v>
       </c>
       <c r="J7" s="9">
         <v>12306</v>
@@ -2856,18 +2856,18 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>21699</v>
+        <v>14711</v>
       </c>
       <c r="O7" s="9">
         <v>12306</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>25009</v>
+        <v>10738</v>
       </c>
       <c r="E8" s="9">
         <v>11131</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>23626</v>
+        <v>12890</v>
       </c>
       <c r="J8" s="9">
         <v>11131</v>
@@ -2896,18 +2896,18 @@
       </c>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>12520</v>
+        <v>12201</v>
       </c>
       <c r="O8" s="9">
         <v>11131</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>15725</v>
+        <v>49723</v>
       </c>
       <c r="E9" s="9">
         <v>24518</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>12679</v>
+        <v>21291</v>
       </c>
       <c r="J9" s="9">
         <v>24518</v>
@@ -2936,18 +2936,18 @@
       </c>
       <c r="N9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>13463</v>
+        <v>17002</v>
       </c>
       <c r="O9" s="9">
         <v>24518</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>14269</v>
+        <v>48951</v>
       </c>
       <c r="E10" s="9">
         <v>10295</v>
@@ -2966,18 +2966,18 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>22038</v>
+        <v>17076</v>
       </c>
       <c r="J10" s="9">
         <v>10295</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>42654</v>
+        <v>24562</v>
       </c>
       <c r="E11" s="9">
         <v>14905</v>
@@ -2996,18 +2996,18 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>24222</v>
+        <v>16366</v>
       </c>
       <c r="J11" s="9">
         <v>14905</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>46848</v>
+        <v>26770</v>
       </c>
       <c r="E12" s="9">
         <v>19042</v>
@@ -3026,14 +3026,14 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15279</v>
+        <v>12247</v>
       </c>
       <c r="J12" s="9">
         <v>19042</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" ca="1" si="3"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>12182</v>
+        <v>31102</v>
       </c>
       <c r="E13" s="9">
         <v>23378</v>
@@ -3056,18 +3056,18 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>21904</v>
+        <v>16766</v>
       </c>
       <c r="J13" s="9">
         <v>23378</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B4:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="L4">
         <v>16297</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C66" ca="1" si="0">RANDBETWEEN(100,500)</f>
-        <v>331</v>
+        <v>105</v>
       </c>
       <c r="L5">
         <v>20756</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="L6">
         <v>19263</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="L7">
         <v>12306</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>232</v>
+        <v>463</v>
       </c>
       <c r="L8">
         <v>11131</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="L9">
         <v>24518</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="L10">
         <v>10295</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="L11">
         <v>14905</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>407</v>
       </c>
       <c r="L12">
         <v>19042</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L13">
         <v>23378</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>475</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>465</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>445</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>440</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>366</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>492</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>297</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>414</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>405</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>381</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="W7" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>6919.8850276694247</v>
+        <v>1028.713045926324</v>
       </c>
     </row>
     <row r="8" spans="6:23" x14ac:dyDescent="0.25">
@@ -3824,14 +3824,14 @@
       </c>
       <c r="L8" t="str">
         <f ca="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R8" s="10">
         <v>43873</v>
       </c>
       <c r="S8" s="11">
         <f ca="1">RAND()*10000</f>
-        <v>8223.537765811785</v>
+        <v>9826.6153455006861</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>147</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" ref="W8:W27" ca="1" si="0">RAND()*10000</f>
-        <v>9843.4252933554981</v>
+        <v>9773.1937627492553</v>
       </c>
     </row>
     <row r="9" spans="6:23" x14ac:dyDescent="0.25">
@@ -3856,14 +3856,14 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L27" ca="1" si="1">INDEX($I$8:$I$10,RANDBETWEEN(1,3))</f>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R9" s="10">
         <v>43874</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" ref="S9:S27" ca="1" si="2">RAND()*10000</f>
-        <v>560.07623534775064</v>
+        <v>5490.6619025164764</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>148</v>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9182.1189957966853</v>
+        <v>4065.4386601800898</v>
       </c>
     </row>
     <row r="10" spans="6:23" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="S10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5106.3745466400942</v>
+        <v>4169.7965814149475</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>147</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6589.6534230827438</v>
+        <v>9461.898486931208</v>
       </c>
     </row>
     <row r="11" spans="6:23" x14ac:dyDescent="0.25">
@@ -3917,14 +3917,14 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R11" s="10">
         <v>43876</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8700.2246376591447</v>
+        <v>6086.0499071293507</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>148</v>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="W11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4465.3064063627335</v>
+        <v>3314.4089765665994</v>
       </c>
     </row>
     <row r="12" spans="6:23" x14ac:dyDescent="0.25">
@@ -3946,14 +3946,14 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R12" s="10">
         <v>43877</v>
       </c>
       <c r="S12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9882.9457262633969</v>
+        <v>6509.4012409615498</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>148</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="W12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7010.5830510538626</v>
+        <v>3664.4464951290324</v>
       </c>
     </row>
     <row r="13" spans="6:23" x14ac:dyDescent="0.25">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="S13" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5053.7527388099297</v>
+        <v>192.07237243277442</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>148</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4382.9869136839252</v>
+        <v>216.71950072972402</v>
       </c>
     </row>
     <row r="14" spans="6:23" x14ac:dyDescent="0.25">
@@ -4004,14 +4004,14 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R14" s="10">
         <v>43879</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2405.191506004267</v>
+        <v>886.19786366030962</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>147</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3708.3213340837974</v>
+        <v>6226.5723348123593</v>
       </c>
     </row>
     <row r="15" spans="6:23" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="S15" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>3352.2572417264951</v>
+        <v>2990.634541201287</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>148</v>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1042.9325644942699</v>
+        <v>2794.3504203467082</v>
       </c>
     </row>
     <row r="16" spans="6:23" x14ac:dyDescent="0.25">
@@ -4063,14 +4063,14 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R16" s="10">
         <v>43881</v>
       </c>
       <c r="S16" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>218.16336321332619</v>
+        <v>2623.0522814236201</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>148</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2980.2575064167204</v>
+        <v>6904.2829550441775</v>
       </c>
     </row>
     <row r="17" spans="6:23" x14ac:dyDescent="0.25">
@@ -4093,14 +4093,14 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Сидоров</v>
       </c>
       <c r="R17" s="10">
         <v>43882</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9262.640290982381</v>
+        <v>5137.3966116258498</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>147</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2610.34342557831</v>
+        <v>4856.5007585282501</v>
       </c>
     </row>
     <row r="18" spans="6:23" x14ac:dyDescent="0.25">
@@ -4119,14 +4119,14 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Петров</v>
+        <v>Иванов</v>
       </c>
       <c r="R18" s="10">
         <v>43883</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8612.2831327722943</v>
+        <v>7336.2161137475832</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>147</v>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="W18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6180.1803178181281</v>
+        <v>1382.2408096741156</v>
       </c>
     </row>
     <row r="19" spans="6:23" x14ac:dyDescent="0.25">
@@ -4145,14 +4145,14 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R19" s="10">
         <v>43884</v>
       </c>
       <c r="S19" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>4565.292980324205</v>
+        <v>9968.8332211571978</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>147</v>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1032.3875361344838</v>
+        <v>9320.8053713368517</v>
       </c>
     </row>
     <row r="20" spans="6:23" x14ac:dyDescent="0.25">
@@ -4171,14 +4171,14 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Петров</v>
       </c>
       <c r="R20" s="10">
         <v>43885</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9007.5705303638479</v>
+        <v>6674.1639542660478</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>147</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4723.350846444363</v>
+        <v>9562.2175056795713</v>
       </c>
     </row>
     <row r="21" spans="6:23" x14ac:dyDescent="0.25">
@@ -4197,14 +4197,14 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R21" s="10">
         <v>43886</v>
       </c>
       <c r="S21" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7151.4556115314463</v>
+        <v>4177.6735345179404</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>148</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="W21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6319.8046237350572</v>
+        <v>1440.8440760599194</v>
       </c>
     </row>
     <row r="22" spans="6:23" x14ac:dyDescent="0.25">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Сидоров</v>
+        <v>Иванов</v>
       </c>
       <c r="R22" s="10">
         <v>43887</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9492.875371351869</v>
+        <v>4438.0463671811494</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>148</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9976.165826276083</v>
+        <v>2401.3945736494611</v>
       </c>
     </row>
     <row r="23" spans="6:23" x14ac:dyDescent="0.25">
@@ -4249,14 +4249,14 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R23" s="10">
         <v>43888</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>7710.8680517220655</v>
+        <v>3628.9936413179112</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>147</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="W23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>751.78791281062422</v>
+        <v>9730.0913587487266</v>
       </c>
     </row>
     <row r="24" spans="6:23" x14ac:dyDescent="0.25">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="S24" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6836.3182342390473</v>
+        <v>3691.3074204634277</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>147</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="W24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7597.3036365712824</v>
+        <v>6619.0673104211219</v>
       </c>
     </row>
     <row r="25" spans="6:23" x14ac:dyDescent="0.25">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Петров</v>
       </c>
       <c r="R25" s="10">
         <v>43890</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9707.0973734683193</v>
+        <v>9492.0420338669082</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>148</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="W25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8770.8297131901709</v>
+        <v>938.25189002262221</v>
       </c>
     </row>
     <row r="26" spans="6:23" x14ac:dyDescent="0.25">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="S26" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9352.8067547829251</v>
+        <v>6916.9942765182786</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>148</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="W26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>504.9766300394931</v>
+        <v>6104.1046601628168</v>
       </c>
     </row>
     <row r="27" spans="6:23" x14ac:dyDescent="0.25">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Иванов</v>
+        <v>Сидоров</v>
       </c>
       <c r="R27" s="10">
         <v>43892</v>
       </c>
       <c r="S27" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9834.3008495865051</v>
+        <v>5600.9336527914102</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>147</v>
@@ -4370,13 +4370,13 @@
       </c>
       <c r="W27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9343.28766874963</v>
+        <v>3327.6050873530585</v>
       </c>
     </row>
     <row r="28" spans="6:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="L28" t="b">
         <f ca="1">AND(COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Иванов"),COUNTIF(L7:L27,"Петров")=COUNTIF(L7:L27,"Сидоров"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="13" t="str">
         <f ca="1">IF(SUMIF(T8:T27,"Иванов",S8:S27)&gt;SUMIF(T8:T27,"Петров",S8:S27),"Иванов","Петров")</f>
